--- a/AfDD_2024_Annex_Table_Tab33.xlsx
+++ b/AfDD_2024_Annex_Table_Tab33.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6BF807-7B2B-4571-B5C6-385EEAC22C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C773E13A-42A8-4BFB-93CB-F6BA0A26CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F0E79C47-45C6-47B5-A562-044A0F3A99A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24721D3A-2B60-4012-83DC-6052EAA7584B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab33" sheetId="1" r:id="rId1"/>
@@ -1501,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21E7864-81B8-4E80-98EC-7084DC8B4A14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65B6D18-3178-480A-AB45-068246F35B57}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10682,12 +10682,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0D0DA12A-426E-4F8B-BEAD-B7176CCF0707}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FB08D605-A9A4-4173-BF28-D3CAA9E4B87D}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{89824207-1945-4667-AEF0-D067ABD708EC}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{235823AB-172A-4833-A158-D4A894915259}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{7D893341-F864-4BFD-93AC-A9799D594CDC}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{FA886AEA-D61D-4A01-870E-51DFE0C2675B}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CA53F6E8-DD52-4E77-8DD4-1EA55D1BDDBF}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4CE28294-465D-4F3E-8EE3-7B5BF2005792}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{12E7F0C9-84B7-4928-BA67-1A0DCA090AB5}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{4A44E516-A6FE-43EC-8D09-40336021CED0}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{B2191701-A92A-45B5-B9B0-B017E622BA82}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{4BF83486-F07C-410D-80C1-804BCC78E042}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab33.xlsx
+++ b/AfDD_2024_Annex_Table_Tab33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C773E13A-42A8-4BFB-93CB-F6BA0A26CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE03E249-BF1C-4F40-81F3-35CE3F55AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24721D3A-2B60-4012-83DC-6052EAA7584B}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{9814A5A9-4F1E-4377-AF1B-B8B94FBA5542}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab33" sheetId="1" r:id="rId1"/>
@@ -1184,8 +1184,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1501,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65B6D18-3178-480A-AB45-068246F35B57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791596E5-C3E9-44A8-B1D9-1EF271462B42}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1513,7 +1513,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="29" width="12.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="29" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10557,7 +10557,7 @@
       <c r="AC110" s="74"/>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="76" t="s">
         <v>191</v>
       </c>
       <c r="C111" s="74"/>
@@ -10589,7 +10589,7 @@
       <c r="AC111" s="74"/>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>188</v>
       </c>
       <c r="C112" s="74"/>
@@ -10682,12 +10682,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CA53F6E8-DD52-4E77-8DD4-1EA55D1BDDBF}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4CE28294-465D-4F3E-8EE3-7B5BF2005792}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{12E7F0C9-84B7-4928-BA67-1A0DCA090AB5}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{4A44E516-A6FE-43EC-8D09-40336021CED0}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{B2191701-A92A-45B5-B9B0-B017E622BA82}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{4BF83486-F07C-410D-80C1-804BCC78E042}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CD2FA4AD-B091-423B-B59E-A504A079E8DD}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F2E8A722-759E-4E45-8D18-48D7C4E279A6}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E158A5E3-CD45-4DF5-847E-BAD49F6A05FE}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{396EA181-E08B-4628-A9AB-A5BF1021A2D9}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{D6AF66BA-AA01-466E-82F6-EBBA6ED2E5C3}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B0777A14-7F0F-4F2F-924F-1CD83161F3E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab33.xlsx
+++ b/AfDD_2024_Annex_Table_Tab33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE03E249-BF1C-4F40-81F3-35CE3F55AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDA5F7C-F41A-41F7-993F-3E09854737AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{9814A5A9-4F1E-4377-AF1B-B8B94FBA5542}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{806744D1-0D67-4E6A-93A8-E2807F2D47F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab33" sheetId="1" r:id="rId1"/>
@@ -1501,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791596E5-C3E9-44A8-B1D9-1EF271462B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378AB7DB-BEAE-41D3-A3CD-79F166AA5E61}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10682,12 +10682,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CD2FA4AD-B091-423B-B59E-A504A079E8DD}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F2E8A722-759E-4E45-8D18-48D7C4E279A6}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E158A5E3-CD45-4DF5-847E-BAD49F6A05FE}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{396EA181-E08B-4628-A9AB-A5BF1021A2D9}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{D6AF66BA-AA01-466E-82F6-EBBA6ED2E5C3}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B0777A14-7F0F-4F2F-924F-1CD83161F3E8}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{89CF5038-EDD1-4E5F-95AF-019E268C76C2}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EA8D325C-DC2C-41CF-AD91-D046B91A1775}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E453C462-7FDF-4516-8A1C-9BB611D33907}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{5F5B6C89-81D7-4A57-8646-553755528AC7}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{D36B6DCC-835B-4D89-8915-A155F0A4F34D}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{0A2450CC-CBDE-4561-89E2-80AB2AEE1CB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
